--- a/classfiers/greedy/randomForest/smote/greedy-randomForest-smote-results.xlsx
+++ b/classfiers/greedy/randomForest/smote/greedy-randomForest-smote-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9951923076923077</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9971861471861472</v>
       </c>
     </row>
     <row r="3">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.988235294117647</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.9905660377358491</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9913793103448275</v>
+        <v>0.9952606635071091</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9973228525860105</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9965811965811966</v>
+        <v>0.9934620447564722</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9980861244019138</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9982758620689655</v>
+        <v>0.9957376530634127</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9989017999544314</v>
       </c>
     </row>
   </sheetData>
